--- a/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,12 +581,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>395,78%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 13,31</t>
+          <t>4,48; 28,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,05%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-54,32%</t>
+          <t>-57,21%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,5</t>
+          <t>-3,62; 5,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -2,01</t>
+          <t>-16,46; -2,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 90,35</t>
+          <t>-60,03; 259,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,91; -19,71</t>
+          <t>-79,5; -14,97</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,42</t>
+          <t>-6,69; 6,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 17,42</t>
+          <t>-0,39; 19,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 82,95</t>
+          <t>-55,05; 134,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 101,98</t>
+          <t>-1,39; 134,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 53,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 45,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 4,57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 7,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-33,86; 136,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 58,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,24 +588,20 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>2.912308925246593</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.04959520861897</v>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -604,154 +609,102 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,47</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 28,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.767314556650391</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.0069452159343</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>30.26094294264535</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,57%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-57,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 5,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,46; -2,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-60,03; 259,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-79,5; -14,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.672854099306288</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.427600575750791</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1627623578278938</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.6012836015278498</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>42,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.694589981799672</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.38942071015591</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6055635358671734</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.8109271099561616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,69; 6,47</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 19,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-55,05; 134,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 134,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.877731838615195</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.69040253896881</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.545026555089267</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.2249527932549673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +712,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.5028012208295283</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.888720249384441</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.063555969389522</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.4690773868544719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.369941389185782</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5280672893078242</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5430889043094401</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.01636660107556966</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.303849386695069</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.4952453624737</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.398372604032907</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.407592343200273</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>21,06%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 4,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 7,11</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-33,86; 136,14</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-21,06; 58,48</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.003668522115731</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.639848218970774</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.20026908339114</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1050834647961219</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.081596556890533</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.146605583212367</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3268717396599977</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2261770800232558</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.38719113266302</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.079003410670833</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.306694804917934</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5609845874383662</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
